--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>3.962991287035222</v>
+        <v>4.165027095776</v>
       </c>
       <c r="R2">
-        <v>35.666921583317</v>
+        <v>37.485243861984</v>
       </c>
       <c r="S2">
-        <v>0.0005289445510877921</v>
+        <v>0.0003564951791318527</v>
       </c>
       <c r="T2">
-        <v>0.000528944551087792</v>
+        <v>0.0003564951791318527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>42.36248410920066</v>
+        <v>69.75496104331734</v>
       </c>
       <c r="R3">
-        <v>381.262356982806</v>
+        <v>627.7946493898561</v>
       </c>
       <c r="S3">
-        <v>0.005654164623931891</v>
+        <v>0.005970503134947723</v>
       </c>
       <c r="T3">
-        <v>0.005654164623931891</v>
+        <v>0.005970503134947723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>22.01040349036711</v>
+        <v>82.538227485232</v>
       </c>
       <c r="R4">
-        <v>198.093631413304</v>
+        <v>742.8440473670879</v>
       </c>
       <c r="S4">
-        <v>0.002937751347463391</v>
+        <v>0.007064655166929043</v>
       </c>
       <c r="T4">
-        <v>0.002937751347463391</v>
+        <v>0.007064655166929043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>45.39983853465622</v>
+        <v>73.7651629712249</v>
       </c>
       <c r="R5">
-        <v>408.598546811906</v>
+        <v>663.886466741024</v>
       </c>
       <c r="S5">
-        <v>0.006059563464530662</v>
+        <v>0.006313746437276816</v>
       </c>
       <c r="T5">
-        <v>0.006059563464530661</v>
+        <v>0.006313746437276816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>242.9729243795291</v>
+        <v>155.081114278436</v>
       </c>
       <c r="R6">
-        <v>2186.756319415762</v>
+        <v>1395.730028505924</v>
       </c>
       <c r="S6">
-        <v>0.03242984783561444</v>
+        <v>0.01327378390184467</v>
       </c>
       <c r="T6">
-        <v>0.03242984783561444</v>
+        <v>0.01327378390184468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
         <v>2597.264516242257</v>
@@ -883,10 +883,10 @@
         <v>23375.38064618032</v>
       </c>
       <c r="S7">
-        <v>0.3466595846663547</v>
+        <v>0.2223064238668724</v>
       </c>
       <c r="T7">
-        <v>0.3466595846663545</v>
+        <v>0.2223064238668724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>1349.468549255572</v>
+        <v>3073.238179400602</v>
       </c>
       <c r="R8">
-        <v>12145.21694330014</v>
+        <v>27659.14361460541</v>
       </c>
       <c r="S8">
-        <v>0.1801149647561005</v>
+        <v>0.263046210765681</v>
       </c>
       <c r="T8">
-        <v>0.1801149647561004</v>
+        <v>0.2630462107656811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>2783.486194181435</v>
+        <v>2746.580851805152</v>
       </c>
       <c r="R9">
-        <v>25051.37574763292</v>
+        <v>24719.22766624637</v>
       </c>
       <c r="S9">
-        <v>0.371514784868938</v>
+        <v>0.2350867858116459</v>
       </c>
       <c r="T9">
-        <v>0.3715147848689379</v>
+        <v>0.2350867858116459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>10.55356644794911</v>
+        <v>49.044755246352</v>
       </c>
       <c r="R10">
-        <v>94.98209803154202</v>
+        <v>441.402797217168</v>
       </c>
       <c r="S10">
-        <v>0.001408595442903888</v>
+        <v>0.004197864360776405</v>
       </c>
       <c r="T10">
-        <v>0.001408595442903888</v>
+        <v>0.004197864360776405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>112.8125848798174</v>
+        <v>821.3908128131679</v>
       </c>
       <c r="R11">
-        <v>1015.313263918356</v>
+        <v>7392.517315318511</v>
       </c>
       <c r="S11">
-        <v>0.01505721253072694</v>
+        <v>0.07030491236132805</v>
       </c>
       <c r="T11">
-        <v>0.01505721253072694</v>
+        <v>0.07030491236132805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>58.61437458661156</v>
+        <v>971.9185667690639</v>
       </c>
       <c r="R12">
-        <v>527.5293712795041</v>
+        <v>8747.267100921574</v>
       </c>
       <c r="S12">
-        <v>0.007823321276136681</v>
+        <v>0.0831889626632444</v>
       </c>
       <c r="T12">
-        <v>0.007823321276136679</v>
+        <v>0.0831889626632444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>120.9011521849951</v>
+        <v>868.6124436741387</v>
       </c>
       <c r="R13">
-        <v>1088.110369664956</v>
+        <v>7817.511993067248</v>
       </c>
       <c r="S13">
-        <v>0.01613680198533344</v>
+        <v>0.07434673090549854</v>
       </c>
       <c r="T13">
-        <v>0.01613680198533343</v>
+        <v>0.07434673090549854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N14">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q14">
-        <v>3.569846032408334</v>
+        <v>3.073861925194</v>
       </c>
       <c r="R14">
-        <v>32.12861429167501</v>
+        <v>27.664757326746</v>
       </c>
       <c r="S14">
-        <v>0.0004764710468181202</v>
+        <v>0.0002630995987420944</v>
       </c>
       <c r="T14">
-        <v>0.0004764710468181201</v>
+        <v>0.0002630995987420944</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P15">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q15">
-        <v>38.15994910585</v>
+        <v>51.48036589291267</v>
       </c>
       <c r="R15">
-        <v>343.43954195265</v>
+        <v>463.323293036214</v>
       </c>
       <c r="S15">
-        <v>0.00509324792496003</v>
+        <v>0.004406334422020825</v>
       </c>
       <c r="T15">
-        <v>0.005093247924960029</v>
+        <v>0.004406334422020825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N16">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O16">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P16">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q16">
-        <v>19.82687971806667</v>
+        <v>60.91463728943299</v>
       </c>
       <c r="R16">
-        <v>178.4419174626</v>
+        <v>548.2317356048969</v>
       </c>
       <c r="S16">
-        <v>0.002646314168353915</v>
+        <v>0.00521383751723284</v>
       </c>
       <c r="T16">
-        <v>0.002646314168353914</v>
+        <v>0.00521383751723284</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N17">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q17">
-        <v>40.89598531168334</v>
+        <v>54.43996417044512</v>
       </c>
       <c r="R17">
-        <v>368.06386780515</v>
+        <v>489.959677534006</v>
       </c>
       <c r="S17">
-        <v>0.005458429510745736</v>
+        <v>0.004659653906827365</v>
       </c>
       <c r="T17">
-        <v>0.005458429510745735</v>
+        <v>0.004659653906827365</v>
       </c>
     </row>
   </sheetData>
